--- a/public/sample_imports/SampleCustomer.xlsx
+++ b/public/sample_imports/SampleCustomer.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="SampleCustomer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -45,9 +45,6 @@
     <t>Street</t>
   </si>
   <si>
-    <t>Street2</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>123 Main Street</t>
   </si>
   <si>
-    <t>Main Street</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>NT</t>
+  </si>
+  <si>
+    <t>City/Suburb</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -967,30 +967,30 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>9995551213</v>
@@ -999,28 +999,28 @@
         <v>9995551213</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
       <c r="K2">
         <v>1234</v>
       </c>
       <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
